--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pdcd1lg2-Pdcd1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pdcd1lg2-Pdcd1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -443,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,31 +513,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.7764743333333333</v>
+        <v>0.1892466666666667</v>
       </c>
       <c r="H2">
-        <v>2.329423</v>
+        <v>0.56774</v>
       </c>
       <c r="I2">
-        <v>0.7842757860019568</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.7842757860019568</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -549,10 +546,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1152523333333333</v>
+        <v>0.1457796666666667</v>
       </c>
       <c r="N2">
-        <v>0.345757</v>
+        <v>0.437339</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -561,78 +558,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.08949047869011112</v>
+        <v>0.02758831598444444</v>
       </c>
       <c r="R2">
-        <v>0.805414308211</v>
+        <v>0.24829484386</v>
       </c>
       <c r="S2">
-        <v>0.7842757860019568</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>0.7842757860019568</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G3">
-        <v>0.2135783333333333</v>
-      </c>
-      <c r="H3">
-        <v>0.6407350000000001</v>
-      </c>
-      <c r="I3">
-        <v>0.2157242139980432</v>
-      </c>
-      <c r="J3">
-        <v>0.2157242139980433</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M3">
-        <v>0.1152523333333333</v>
-      </c>
-      <c r="N3">
-        <v>0.345757</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>0.02461540126611111</v>
-      </c>
-      <c r="R3">
-        <v>0.221538611395</v>
-      </c>
-      <c r="S3">
-        <v>0.2157242139980432</v>
-      </c>
-      <c r="T3">
-        <v>0.2157242139980433</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
